--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -444,7 +444,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -452,34 +452,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="33.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3185,273 +3186,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAC2A82-AECE-49E1-887C-6ED3321E6E88}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{491BE4D5-4845-4425-930D-AE4ED6140ADA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A77E35-AC7E-4B1F-9BB8-341B5BAFBF75}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto notarile consenso</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -381,6 +396,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -469,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -481,6 +499,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -502,245 +521,284 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -762,2425 +820,2791 @@
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -821,2790 +824,2790 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto notarile consenso</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -401,7 +404,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -490,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,7 +505,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,13 +625,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -645,7 +648,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -668,13 +671,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -737,7 +740,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -760,7 +763,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -783,7 +786,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -805,2809 +808,2832 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>32</v>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1476,22 +1482,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>33</v>
@@ -1499,22 +1505,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>33</v>
@@ -1522,19 +1528,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1574,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,22 +1643,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -1660,22 +1666,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
@@ -1683,22 +1689,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>33</v>
@@ -1706,22 +1712,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1729,22 +1735,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1913,22 +1919,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1936,22 +1942,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1982,22 +1988,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,16 +2497,16 @@
         <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2514,7 +2520,7 @@
         <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -2523,7 +2529,7 @@
         <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2537,16 +2543,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2557,10 +2563,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2569,7 +2575,7 @@
         <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2626,16 +2632,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>100</v>
@@ -2649,10 +2655,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2661,7 +2667,7 @@
         <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2810,10 +2816,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2822,7 +2828,7 @@
         <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,10 +2839,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2845,7 +2851,7 @@
         <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2856,10 +2862,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2868,7 +2874,7 @@
         <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3040,599 +3046,691 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -410,7 +410,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -511,7 +514,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3624,7 +3627,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3644,19 +3647,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3667,19 +3670,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3702,7 +3705,7 @@
         <v>31</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3713,10 +3716,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3725,7 +3728,7 @@
         <v>97</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3627,7 +3624,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3647,19 +3644,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3670,19 +3667,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3693,10 +3690,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3705,7 +3702,7 @@
         <v>31</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3716,10 +3713,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3728,7 +3725,7 @@
         <v>97</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3624,7 +3627,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3644,19 +3647,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3667,19 +3670,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3702,7 +3705,7 @@
         <v>31</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3713,10 +3716,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3725,7 +3728,7 @@
         <v>97</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,36 @@
   </si>
   <si>
     <t>5,19</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -502,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,7 +542,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2037,22 +2067,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2060,22 +2090,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2083,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,22 +2136,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2129,22 +2159,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2152,22 +2182,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2175,19 +2205,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2251,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2389,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2481,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2550,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2573,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2596,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2619,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2642,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2665,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2688,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2711,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2734,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2757,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2780,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2803,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2826,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2849,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2872,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2895,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2941,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,16 +2964,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
@@ -2957,19 +2987,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +3010,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3033,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3056,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3079,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3102,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3125,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,622 +3148,944 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E140" s="2" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -3154,7 +3154,7 @@
         <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1538,22 +1544,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>33</v>
@@ -1561,22 +1567,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,22 +1705,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
@@ -1768,22 +1774,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1791,22 +1797,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1814,22 +1820,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,22 +1912,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1975,22 +1981,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1998,22 +2004,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -2021,22 +2027,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,22 +2096,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2159,22 +2165,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2182,22 +2188,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2205,22 +2211,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2228,22 +2234,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,7 +2835,7 @@
         <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2838,7 +2844,7 @@
         <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2852,16 +2858,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,16 +2881,16 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,10 +2901,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2907,7 +2913,7 @@
         <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2924,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2964,16 +2970,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3240,19 +3246,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3263,10 +3269,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3275,7 +3281,7 @@
         <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3286,10 +3292,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3298,7 +3304,7 @@
         <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,622 +3476,737 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E154" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1567,22 +1573,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -1590,22 +1596,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,22 +1757,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1774,22 +1780,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1797,22 +1803,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
@@ -1843,22 +1849,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,22 +1918,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2027,22 +2033,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2050,22 +2056,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2073,22 +2079,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,22 +2148,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2211,22 +2217,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2234,22 +2240,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2257,22 +2263,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2280,22 +2286,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2910,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2913,7 +2919,7 @@
         <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,16 +2933,16 @@
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,16 +2956,16 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,10 +2976,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2982,7 +2988,7 @@
         <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2993,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,10 +3091,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3097,7 +3103,7 @@
         <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,10 +3367,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3373,7 +3379,7 @@
         <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3384,10 +3390,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3396,7 +3402,7 @@
         <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3476,19 +3482,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3528,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3551,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3568,645 +3574,737 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1596,22 +1602,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1619,22 +1625,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,22 +1786,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1803,22 +1809,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1826,22 +1832,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
@@ -1872,22 +1878,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,22 +1924,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1941,22 +1947,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2079,22 +2085,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2102,22 +2108,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2125,22 +2131,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,22 +2200,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2263,22 +2269,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2286,22 +2292,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2309,22 +2315,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2332,22 +2338,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,7 +2985,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2988,7 +2994,7 @@
         <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,16 +3008,16 @@
         <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,16 +3031,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,10 +3051,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3057,7 +3063,7 @@
         <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,10 +3166,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3172,7 +3178,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3350,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,10 +3442,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3448,7 +3454,7 @@
         <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,10 +3465,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3471,7 +3477,7 @@
         <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3557,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3597,19 +3603,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3620,19 +3626,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3643,668 +3649,760 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -209,9 +299,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -299,6 +386,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -353,9 +449,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -461,9 +554,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -492,6 +582,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -550,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
@@ -1007,22 +1103,22 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1030,22 +1126,22 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1053,22 +1149,22 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1076,22 +1172,22 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1099,22 +1195,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1122,22 +1218,22 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1145,22 +1241,22 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1168,22 +1264,22 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1191,22 +1287,22 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1214,22 +1310,22 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1237,22 +1333,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1260,22 +1356,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1283,39 +1379,39 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1326,19 +1422,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1349,19 +1445,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1372,19 +1468,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1395,19 +1491,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1418,19 +1514,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1441,19 +1537,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1560,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1583,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1606,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1629,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1652,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1675,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1698,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1625,22 +1721,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1648,19 +1744,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1767,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1790,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1813,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1836,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1859,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1882,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1905,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1832,19 +1928,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,22 +1951,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1878,22 +1974,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1901,19 +1997,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,306 +2020,306 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>98</v>
@@ -2232,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>99</v>
@@ -2241,12 +2337,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>100</v>
@@ -2255,21 +2351,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2278,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>103</v>
@@ -2287,12 +2383,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2301,21 +2397,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2324,220 +2420,220 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2545,19 +2641,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2664,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2687,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2710,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2733,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2756,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2779,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,22 +2802,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2729,19 +2825,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,22 +2848,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2775,22 +2871,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2798,19 +2894,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2917,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,22 +2940,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2867,22 +2963,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2890,19 +2986,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,22 +3009,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2936,19 +3032,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,22 +3055,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2982,19 +3078,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,22 +3101,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3028,22 +3124,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3051,19 +3147,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3170,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3193,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3216,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,22 +3239,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3166,19 +3262,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,22 +3285,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3212,22 +3308,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3235,22 +3331,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3258,19 +3354,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3377,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3400,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3423,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3446,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3469,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,19 +3492,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3515,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3538,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3561,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3584,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3607,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3630,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3653,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,19 +3676,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3603,19 +3699,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3626,19 +3722,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3649,19 +3745,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3672,19 +3768,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3695,19 +3791,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3718,617 +3814,617 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4339,22 +4435,22 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>33</v>
@@ -4362,19 +4458,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4385,24 +4481,944 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -646,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2345,7 +2345,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2354,7 +2354,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2368,7 +2368,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2377,7 +2377,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2391,7 +2391,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2400,7 +2400,7 @@
         <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2414,7 +2414,7 @@
         <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2423,7 +2423,7 @@
         <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2446,7 +2446,7 @@
         <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2460,7 +2460,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2469,7 +2469,7 @@
         <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2483,7 +2483,7 @@
         <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2506,7 +2506,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2515,7 +2515,7 @@
         <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2529,7 +2529,7 @@
         <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2538,7 +2538,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2552,7 +2552,7 @@
         <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2561,7 +2561,7 @@
         <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2575,7 +2575,7 @@
         <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2584,7 +2584,7 @@
         <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2595,25 +2595,25 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -2621,19 +2621,19 @@
         <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2644,16 +2644,16 @@
         <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2667,16 +2667,16 @@
         <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2690,7 +2690,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2699,7 +2699,7 @@
         <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2713,7 +2713,7 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2722,7 +2722,7 @@
         <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2736,7 +2736,7 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2745,7 +2745,7 @@
         <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2759,16 +2759,16 @@
         <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2791,10 +2791,10 @@
         <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2805,7 +2805,7 @@
         <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2814,10 +2814,10 @@
         <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2828,7 +2828,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2837,10 +2837,10 @@
         <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2851,7 +2851,7 @@
         <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2860,7 +2860,7 @@
         <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
@@ -2874,19 +2874,19 @@
         <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2897,7 +2897,7 @@
         <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -2906,7 +2906,7 @@
         <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2920,19 @@
         <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2943,7 +2943,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2952,7 +2952,7 @@
         <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2966,7 +2966,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2975,10 +2975,10 @@
         <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2989,7 +2989,7 @@
         <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2998,10 +2998,10 @@
         <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -3012,7 +3012,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3021,10 +3021,10 @@
         <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3035,7 +3035,7 @@
         <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3044,10 +3044,10 @@
         <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3058,7 +3058,7 @@
         <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3067,10 +3067,10 @@
         <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3081,7 +3081,7 @@
         <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3090,10 +3090,10 @@
         <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3104,7 +3104,7 @@
         <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3113,7 +3113,7 @@
         <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>21</v>
@@ -3127,19 +3127,19 @@
         <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3150,7 +3150,7 @@
         <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -3159,7 +3159,7 @@
         <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3173,7 +3173,7 @@
         <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3182,7 +3182,7 @@
         <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3196,16 +3196,16 @@
         <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3219,7 +3219,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3228,10 +3228,10 @@
         <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3242,7 +3242,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3251,10 +3251,10 @@
         <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3265,7 +3265,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3274,10 +3274,10 @@
         <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3288,7 +3288,7 @@
         <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3297,7 +3297,7 @@
         <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>21</v>
@@ -3308,22 +3308,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3334,19 +3334,19 @@
         <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3357,16 +3357,16 @@
         <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3380,16 +3380,16 @@
         <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3412,7 +3412,7 @@
         <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3426,7 +3426,7 @@
         <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3435,7 +3435,7 @@
         <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3449,7 +3449,7 @@
         <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3458,7 +3458,7 @@
         <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3472,16 +3472,16 @@
         <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3495,7 +3495,7 @@
         <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3504,7 +3504,7 @@
         <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3518,7 +3518,7 @@
         <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3527,7 +3527,7 @@
         <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3541,7 +3541,7 @@
         <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3550,7 +3550,7 @@
         <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3564,7 +3564,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3573,7 +3573,7 @@
         <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3587,16 +3587,16 @@
         <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3619,7 +3619,7 @@
         <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3633,16 +3633,16 @@
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3656,7 +3656,7 @@
         <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3665,7 +3665,7 @@
         <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3679,7 +3679,7 @@
         <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3688,7 +3688,7 @@
         <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3702,7 +3702,7 @@
         <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3711,7 +3711,7 @@
         <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3725,7 +3725,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3734,7 +3734,7 @@
         <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3748,7 +3748,7 @@
         <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3757,7 +3757,7 @@
         <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3771,7 +3771,7 @@
         <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3780,7 +3780,7 @@
         <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3794,7 +3794,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3803,7 +3803,7 @@
         <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3817,7 +3817,7 @@
         <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3826,7 +3826,7 @@
         <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3840,16 +3840,16 @@
         <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3863,7 +3863,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3872,7 +3872,7 @@
         <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3886,7 +3886,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3895,7 +3895,7 @@
         <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3909,16 +3909,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3932,7 +3932,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3941,7 +3941,7 @@
         <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3955,7 +3955,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3978,7 +3978,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3987,7 +3987,7 @@
         <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4001,7 +4001,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4010,7 +4010,7 @@
         <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4021,19 +4021,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4047,16 +4047,16 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4070,16 +4070,16 @@
         <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4093,7 +4093,7 @@
         <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4102,7 +4102,7 @@
         <v>64</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4116,16 +4116,16 @@
         <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4139,16 +4139,16 @@
         <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4162,7 +4162,7 @@
         <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
@@ -4171,7 +4171,7 @@
         <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4185,16 +4185,16 @@
         <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4208,7 +4208,7 @@
         <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -4217,7 +4217,7 @@
         <v>64</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4231,16 +4231,16 @@
         <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4254,7 +4254,7 @@
         <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4263,7 +4263,7 @@
         <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4277,16 +4277,16 @@
         <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4300,7 +4300,7 @@
         <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4309,7 +4309,7 @@
         <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4323,7 +4323,7 @@
         <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4332,7 +4332,7 @@
         <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4346,7 +4346,7 @@
         <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4355,7 +4355,7 @@
         <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4369,16 +4369,16 @@
         <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4392,16 +4392,16 @@
         <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4415,7 +4415,7 @@
         <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4438,7 +4438,7 @@
         <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4447,7 +4447,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4461,7 +4461,7 @@
         <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4470,7 +4470,7 @@
         <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4484,16 +4484,16 @@
         <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4507,7 +4507,7 @@
         <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4516,7 +4516,7 @@
         <v>64</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4527,19 +4527,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4553,7 +4553,7 @@
         <v>160</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
@@ -4562,7 +4562,7 @@
         <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4576,7 +4576,7 @@
         <v>160</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
@@ -4585,7 +4585,7 @@
         <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4599,7 +4599,7 @@
         <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -4608,7 +4608,7 @@
         <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4622,7 +4622,7 @@
         <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4631,7 +4631,7 @@
         <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4645,7 +4645,7 @@
         <v>160</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4654,7 +4654,7 @@
         <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4668,7 +4668,7 @@
         <v>160</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4677,7 +4677,7 @@
         <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4688,25 +4688,25 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177">
@@ -4714,19 +4714,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>179</v>
@@ -4737,16 +4737,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4760,16 +4760,16 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4783,7 +4783,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
@@ -4792,7 +4792,7 @@
         <v>177</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4806,7 +4806,7 @@
         <v>176</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
@@ -4815,7 +4815,7 @@
         <v>177</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4829,7 +4829,7 @@
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4838,7 +4838,7 @@
         <v>177</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4852,16 +4852,16 @@
         <v>176</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>176</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4884,10 +4884,10 @@
         <v>177</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>179</v>
@@ -4898,7 +4898,7 @@
         <v>176</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4907,10 +4907,10 @@
         <v>177</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>179</v>
@@ -4921,7 +4921,7 @@
         <v>176</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4930,10 +4930,10 @@
         <v>177</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>179</v>
@@ -4944,7 +4944,7 @@
         <v>176</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4953,7 +4953,7 @@
         <v>177</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>178</v>
@@ -4967,19 +4967,19 @@
         <v>176</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>179</v>
@@ -4990,7 +4990,7 @@
         <v>176</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
@@ -4999,7 +4999,7 @@
         <v>177</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5013,19 +5013,19 @@
         <v>176</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>179</v>
@@ -5036,7 +5036,7 @@
         <v>176</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5045,7 +5045,7 @@
         <v>177</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>178</v>
@@ -5059,7 +5059,7 @@
         <v>176</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5068,10 +5068,10 @@
         <v>177</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>179</v>
@@ -5082,7 +5082,7 @@
         <v>176</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5091,10 +5091,10 @@
         <v>177</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>179</v>
@@ -5105,7 +5105,7 @@
         <v>176</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5114,10 +5114,10 @@
         <v>177</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>179</v>
@@ -5128,7 +5128,7 @@
         <v>176</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5137,10 +5137,10 @@
         <v>177</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>179</v>
@@ -5151,7 +5151,7 @@
         <v>176</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5160,10 +5160,10 @@
         <v>177</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>179</v>
@@ -5174,7 +5174,7 @@
         <v>176</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5183,10 +5183,10 @@
         <v>177</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>179</v>
@@ -5197,7 +5197,7 @@
         <v>176</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5206,7 +5206,7 @@
         <v>177</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>178</v>
@@ -5220,19 +5220,19 @@
         <v>176</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>179</v>
@@ -5243,7 +5243,7 @@
         <v>176</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>17</v>
@@ -5252,7 +5252,7 @@
         <v>177</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5266,7 +5266,7 @@
         <v>176</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
@@ -5275,7 +5275,7 @@
         <v>177</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5286,25 +5286,25 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -5312,19 +5312,19 @@
         <v>180</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>33</v>
@@ -5335,19 +5335,19 @@
         <v>180</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>33</v>
@@ -5358,16 +5358,16 @@
         <v>180</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5381,44 +5381,21 @@
         <v>180</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -4970,7 +4970,7 @@
         <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>177</v>
@@ -4993,7 +4993,7 @@
         <v>98</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>177</v>
@@ -5002,7 +5002,7 @@
         <v>99</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>179</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -646,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1678,7 +1690,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1687,7 +1699,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1701,7 +1713,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1710,7 +1722,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1724,7 +1736,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -2020,65 +2032,65 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2101,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2124,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2147,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2170,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2193,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2216,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2239,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2262,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2285,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2308,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2331,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2354,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2377,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2400,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2423,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2446,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2469,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2492,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2515,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2538,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2561,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2584,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2595,114 +2607,114 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2745,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2768,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2779,22 +2791,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2802,22 +2814,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2825,22 +2837,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2848,22 +2860,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2871,19 +2883,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2906,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2929,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2940,22 +2952,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2963,22 +2975,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2986,19 +2998,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3009,19 +3021,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3032,22 +3044,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3055,22 +3067,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3078,19 +3090,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>21</v>
@@ -3101,22 +3113,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3124,22 +3136,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3147,19 +3159,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3170,22 +3182,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3193,19 +3205,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3228,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>21</v>
@@ -3239,22 +3251,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3262,22 +3274,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3285,22 +3297,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3308,22 +3320,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3331,19 +3343,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3354,22 +3366,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3377,19 +3389,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3400,22 +3412,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>33</v>
@@ -3423,22 +3435,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>33</v>
@@ -3446,22 +3458,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
@@ -3469,19 +3481,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3492,19 +3504,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3515,19 +3527,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3538,19 +3550,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3561,19 +3573,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3584,19 +3596,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3607,19 +3619,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3630,19 +3642,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3653,19 +3665,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3676,19 +3688,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3699,19 +3711,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3722,19 +3734,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3745,19 +3757,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3768,19 +3780,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3791,19 +3803,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3814,19 +3826,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3837,19 +3849,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3860,19 +3872,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3883,19 +3895,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3906,19 +3918,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3929,19 +3941,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3952,19 +3964,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3975,19 +3987,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3998,19 +4010,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4021,19 +4033,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4044,19 +4056,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4067,19 +4079,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4090,19 +4102,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4113,19 +4125,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4136,19 +4148,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4159,19 +4171,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4182,19 +4194,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4205,19 +4217,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4228,19 +4240,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4251,19 +4263,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4274,19 +4286,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4297,19 +4309,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4320,19 +4332,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4343,19 +4355,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4366,10 +4378,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
@@ -4378,7 +4390,7 @@
         <v>64</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4389,19 +4401,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4412,19 +4424,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4435,19 +4447,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4458,19 +4470,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4481,19 +4493,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4504,19 +4516,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4527,19 +4539,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4550,19 +4562,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4573,19 +4585,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4596,19 +4608,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4619,19 +4631,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4642,19 +4654,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4665,19 +4677,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4688,600 +4700,600 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202">
@@ -5289,22 +5301,22 @@
         <v>180</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E202" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -5312,22 +5324,22 @@
         <v>180</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G203" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204">
@@ -5335,22 +5347,22 @@
         <v>180</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205">
@@ -5358,22 +5370,22 @@
         <v>180</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206">
@@ -5381,21 +5393,251 @@
         <v>180</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>33</v>
       </c>
     </row>
